--- a/global_data/day_data/605117.xlsx
+++ b/global_data/day_data/605117.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I976"/>
+  <dimension ref="A1:I978"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28712,6 +28714,64 @@
         <v>0.006031903162273083</v>
       </c>
     </row>
+    <row r="977" spans="1:9">
+      <c r="A977" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B977">
+        <v>87.55</v>
+      </c>
+      <c r="C977">
+        <v>89.94</v>
+      </c>
+      <c r="D977">
+        <v>87.52</v>
+      </c>
+      <c r="E977">
+        <v>88.58</v>
+      </c>
+      <c r="F977">
+        <v>5752513</v>
+      </c>
+      <c r="G977">
+        <v>512330457</v>
+      </c>
+      <c r="H977">
+        <v>645961796</v>
+      </c>
+      <c r="I977">
+        <v>0.008905345541518681</v>
+      </c>
+    </row>
+    <row r="978" spans="1:9">
+      <c r="A978" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B978">
+        <v>89</v>
+      </c>
+      <c r="C978">
+        <v>90.58</v>
+      </c>
+      <c r="D978">
+        <v>86.2</v>
+      </c>
+      <c r="E978">
+        <v>86.2</v>
+      </c>
+      <c r="F978">
+        <v>6585067</v>
+      </c>
+      <c r="G978">
+        <v>574073287</v>
+      </c>
+      <c r="H978">
+        <v>645961796</v>
+      </c>
+      <c r="I978">
+        <v>0.01019420504552563</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
